--- a/modbus_server/mappingTable完整.xlsx
+++ b/modbus_server/mappingTable完整.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB08D2E-3AE3-4596-BE32-387E6A71202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4896F-E49A-4B5E-B564-677F6DC5DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="InitStatus" sheetId="5" r:id="rId1"/>
@@ -27,11 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="50">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,70 +141,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v_out1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_out2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_out3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_out1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_out2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_out3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mbms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>system_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_soc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_soh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_max_cell_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_min_cell_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_max_cell_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_min_cell_t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rack_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,11 +157,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rack_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rack_soc</t>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soc_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soh_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_max_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv_min_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_max_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_min_sys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soc_rack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modbus_server_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:local,1:remote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:unsuccess,1:success,2:noexecute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117485E7-E0B2-407E-BFDE-CAB3E2B5AA52}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -673,9 +681,44 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -684,7 +727,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -714,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -762,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -815,13 +858,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -843,8 +886,8 @@
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -872,8 +915,8 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -901,8 +944,8 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -930,8 +973,8 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -959,8 +1002,8 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -988,8 +1031,8 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1017,8 +1060,8 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1046,8 +1089,8 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1075,8 +1118,8 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>0</v>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1104,8 +1147,8 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>0</v>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1128,13 +1171,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1148,22 +1191,22 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>1022</v>
+        <v>2001</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>0</v>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1177,22 +1220,22 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>1024</v>
+        <v>2003</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>0</v>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1206,22 +1249,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>1026</v>
+        <v>2005</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>0</v>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1235,22 +1278,22 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>1028</v>
+        <v>2007</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1264,22 +1307,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>1030</v>
+        <v>2009</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>0</v>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1293,22 +1336,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>0</v>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1322,22 +1365,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="2" t="b">
-        <v>0</v>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1351,22 +1394,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>0</v>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1380,22 +1423,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>0</v>
+      <c r="G21" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1409,28 +1452,28 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>0</v>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1438,28 +1481,28 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>2011</v>
+        <v>2029</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>0</v>
+      <c r="G23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1467,28 +1510,28 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>2013</v>
+        <v>2035</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>0</v>
+      <c r="G24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1496,28 +1539,28 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>2015</v>
+        <v>2041</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>0</v>
+      <c r="G25" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1525,28 +1568,28 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>2017</v>
+        <v>2047</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1554,28 +1597,28 @@
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>2023</v>
+        <v>2053</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1583,28 +1626,28 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>2029</v>
+        <v>2059</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1612,28 +1655,28 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>2035</v>
+        <v>2065</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1641,28 +1684,28 @@
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>2041</v>
+        <v>2019</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1670,28 +1713,28 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>2047</v>
+        <v>2025</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="2" t="b">
+      <c r="G31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
         <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1699,28 +1742,28 @@
         <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>2053</v>
+        <v>2031</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1728,28 +1771,28 @@
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>2059</v>
+        <v>2037</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1757,28 +1800,28 @@
         <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>2065</v>
+        <v>2043</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1786,28 +1829,28 @@
         <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>2019</v>
+        <v>2049</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1815,28 +1858,28 @@
         <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>2025</v>
+        <v>2055</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1844,28 +1887,28 @@
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <v>2031</v>
+        <v>2061</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
+      <c r="G37" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1873,28 +1916,28 @@
         <v>3</v>
       </c>
       <c r="B38" s="1">
-        <v>2037</v>
+        <v>2067</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1902,28 +1945,28 @@
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <v>2043</v>
+        <v>2021</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1931,28 +1974,28 @@
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>2049</v>
+        <v>2027</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="2" t="b">
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
         <v>1</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1960,28 +2003,28 @@
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <v>2055</v>
+        <v>2033</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1989,28 +2032,28 @@
         <v>3</v>
       </c>
       <c r="B42" s="1">
-        <v>2061</v>
+        <v>2039</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2018,28 +2061,28 @@
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>2067</v>
+        <v>2045</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
+      <c r="G43" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -2047,28 +2090,28 @@
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>2021</v>
+        <v>2051</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
+      <c r="G44" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -2076,28 +2119,28 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>2027</v>
+        <v>2057</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
+      <c r="G45" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -2105,28 +2148,28 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>2033</v>
+        <v>2063</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
+      <c r="G46" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2134,28 +2177,28 @@
         <v>3</v>
       </c>
       <c r="B47" s="1">
-        <v>2039</v>
+        <v>2069</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="2" t="b">
-        <v>1</v>
+      <c r="G47" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2163,144 +2206,28 @@
         <v>3</v>
       </c>
       <c r="B48" s="1">
-        <v>2045</v>
+        <v>2071</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2051</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2057</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>3</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2063</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>3</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2069</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2344,13 +2271,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/modbus_server/mappingTable完整.xlsx
+++ b/modbus_server/mappingTable完整.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\repos\modbus_server\modbus_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4896F-E49A-4B5E-B564-677F6DC5DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA395D-961C-4F3F-97CB-B60077D94030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{808AFE6B-F94C-4DBB-AA98-AC55AAFD0F78}"/>
   </bookViews>
   <sheets>
     <sheet name="InitStatus" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="76">
   <si>
     <t>Registers</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,109 @@
   <si>
     <t>0:unsuccess,1:success,2:noexecute</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_tr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_fault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3_grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_ab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expireAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62fc6bbc26b0102833f09306</t>
   </si>
 </sst>
 </file>
@@ -616,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117485E7-E0B2-407E-BFDE-CAB3E2B5AA52}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -724,10 +827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE0CD0D-810B-4289-BFF2-5DE3EC74785D}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -737,7 +840,7 @@
     <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,6 +867,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0A29D4-022E-48E7-B12B-DAE644634659}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -785,7 +891,7 @@
     <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,6 +918,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -822,10 +931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6ECB0-6BB4-4398-A6E3-E2CB15F7903C}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -838,7 +947,7 @@
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -866,8 +975,11 @@
       <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -895,8 +1007,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -924,8 +1039,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -953,8 +1071,11 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -982,8 +1103,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1011,8 +1135,11 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1040,8 +1167,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1069,8 +1199,11 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1098,8 +1231,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1127,8 +1263,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1156,8 +1295,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1185,332 +1327,368 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" s="1">
+        <v>1022</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>2001</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>2003</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>2005</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>2007</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>2009</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>2011</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>2013</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>2015</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>2017</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2029</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2035</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>4</v>
@@ -1531,15 +1709,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>2041</v>
+        <v>2023</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -1560,15 +1741,18 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>2047</v>
+        <v>2029</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1589,15 +1773,18 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>2053</v>
+        <v>2035</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -1618,15 +1805,18 @@
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>2059</v>
+        <v>2041</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1647,15 +1837,18 @@
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>2065</v>
+        <v>2047</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
@@ -1676,15 +1869,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>2019</v>
+        <v>2053</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -1693,7 +1889,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>8</v>
@@ -1705,15 +1901,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>2025</v>
+        <v>2059</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1722,7 +1921,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
@@ -1734,15 +1933,18 @@
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
       <c r="B32" s="1">
-        <v>2031</v>
+        <v>2065</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -1751,7 +1953,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
@@ -1763,15 +1965,18 @@
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
       <c r="B33" s="1">
-        <v>2037</v>
+        <v>2019</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>4</v>
@@ -1792,15 +1997,18 @@
         <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>2043</v>
+        <v>2025</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>4</v>
@@ -1821,15 +2029,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>2049</v>
+        <v>2031</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1850,15 +2061,18 @@
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>2055</v>
+        <v>2037</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
@@ -1879,15 +2093,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
       <c r="B37" s="1">
-        <v>2061</v>
+        <v>2043</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
@@ -1908,15 +2125,18 @@
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
       <c r="B38" s="1">
-        <v>2067</v>
+        <v>2049</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
@@ -1937,15 +2157,18 @@
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
       <c r="B39" s="1">
-        <v>2021</v>
+        <v>2055</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>4</v>
@@ -1954,7 +2177,7 @@
         <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>
@@ -1966,15 +2189,18 @@
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
       <c r="B40" s="1">
-        <v>2027</v>
+        <v>2061</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
@@ -1983,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>8</v>
@@ -1995,15 +2221,18 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
       <c r="B41" s="1">
-        <v>2033</v>
+        <v>2067</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -2012,7 +2241,7 @@
         <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>8</v>
@@ -2024,15 +2253,18 @@
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>3</v>
       </c>
       <c r="B42" s="1">
-        <v>2039</v>
+        <v>2021</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
@@ -2053,15 +2285,18 @@
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3</v>
       </c>
       <c r="B43" s="1">
-        <v>2045</v>
+        <v>2027</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>4</v>
@@ -2082,15 +2317,18 @@
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3</v>
       </c>
       <c r="B44" s="1">
-        <v>2051</v>
+        <v>2033</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -2111,15 +2349,18 @@
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>2057</v>
+        <v>2039</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
@@ -2140,15 +2381,18 @@
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>2063</v>
+        <v>2045</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
@@ -2169,15 +2413,18 @@
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
       <c r="B47" s="1">
-        <v>2069</v>
+        <v>2051</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -2198,36 +2445,778 @@
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3</v>
       </c>
       <c r="B48" s="1">
+        <v>2057</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>6</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2063</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2069</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>8</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>2071</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3003</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3005</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3007</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3009</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3011</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3013</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3015</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4003</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4005</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4007</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4009</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4011</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5001</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5002</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
+        <v>5003</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5005</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5006</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>5007</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2239,10 +3228,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DBE918-9F40-4320-A5DB-7980E2411B76}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2251,7 +3240,7 @@
     <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2278,6 +3267,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
